--- a/biology/Zoologie/Bondrée_à_plastron/Bondrée_à_plastron.xlsx
+++ b/biology/Zoologie/Bondrée_à_plastron/Bondrée_à_plastron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_%C3%A0_plastron</t>
+          <t>Bondrée_à_plastron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamirostra melanosternon
 La Bondrée à plastron (Hamirostra melanosternon), anciennement connue en tant que Milan à plastron, est une espèce d'oiseaux de la famille des Accipitridae, la seule du genre Hamirostra.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_%C3%A0_plastron</t>
+          <t>Bondrée_à_plastron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie, des bois aux déserts, sur les arbres près des cours d'eau, jusqu'à 1000 m d'altitude, mais est absent du Sud et de l'Est du continent[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie, des bois aux déserts, sur les arbres près des cours d'eau, jusqu'à 1000 m d'altitude, mais est absent du Sud et de l'Est du continent,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_%C3%A0_plastron</t>
+          <t>Bondrée_à_plastron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau peut se nourrir d'œufs d'émeus dont il brise la coquille à l'aide de pierres qu'il saisit dans son bec[3]. Il présente ainsi un exemple d’utilisation d'outil par un animal.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau peut se nourrir d'œufs d'émeus dont il brise la coquille à l'aide de pierres qu'il saisit dans son bec. Il présente ainsi un exemple d’utilisation d'outil par un animal.
 </t>
         </is>
       </c>
